--- a/biology/Botanique/Prunus_×dasycarpa/Prunus_×dasycarpa.xlsx
+++ b/biology/Botanique/Prunus_×dasycarpa/Prunus_×dasycarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97dasycarpa</t>
+          <t>Prunus_×dasycarpa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abricotier d'Alexandrie, Abricotier du Pape, Abricotier noir
 Prunus ×dasycarpa, l'Abricotier d'Alexandrie, Abricotier du Pape ou Abricotier noir, est une espèce hybride d'arbustes de la famille des Rosaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97dasycarpa</t>
+          <t>Prunus_×dasycarpa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus ×dasycarpa est une espèce d'arbre fruitier du genre Prunus. L'espèce a été nommé par Jakob Friedrich Ehrhart en 1791. Les fruits de cet arbre sont de couleur rougeâtre-orangé et les fleurs de couleur blanche. 
-Un désaccord existe quant à savoir si l'espèce résulte d'une sélection et d'une hybridation par les humains ou si elle existe à l'état sauvage en Asie occidentale[1],[2].
+Un désaccord existe quant à savoir si l'espèce résulte d'une sélection et d'une hybridation par les humains ou si elle existe à l'état sauvage en Asie occidentale,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97dasycarpa</t>
+          <t>Prunus_×dasycarpa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Prunus dasycarpa Ehrh.[3].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Abricotier d'Alexandrie[4], Abricotier du Pape[4], Abricotier noir[4].
-Prunus dasycarpa a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Prunus dasycarpa Ehrh..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Abricotier d'Alexandrie, Abricotier du Pape, Abricotier noir.
+Prunus dasycarpa a pour synonymes :
 Armeniaca atropurpurea var. persicifolia Loisel.
 Armeniaca dasycarpa (Ehrh.) Borkh.
 Armeniaca dasycarpa (Ehrh.) Pers.
